--- a/Alexa Skills Inventory.xlsx
+++ b/Alexa Skills Inventory.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Item Name</t>
   </si>
@@ -82,10 +82,16 @@
     <t>soldering station, third row from the top</t>
   </si>
   <si>
+    <t>potentiometer</t>
+  </si>
+  <si>
     <t>electrical tape</t>
   </si>
   <si>
     <t>soldering station, above the oscilliscope</t>
+  </si>
+  <si>
+    <t>electric tape, wire tape</t>
   </si>
   <si>
     <t>Digital calipers</t>
@@ -897,7 +903,9 @@
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -925,12 +933,14 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -958,13 +968,13 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -993,13 +1003,13 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1028,13 +1038,13 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1063,13 +1073,13 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1098,13 +1108,13 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1133,13 +1143,13 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1168,13 +1178,13 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1203,13 +1213,13 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1238,13 +1248,13 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1273,13 +1283,13 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1308,13 +1318,13 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1343,13 +1353,13 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1378,13 +1388,13 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1413,13 +1423,13 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1448,13 +1458,13 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1483,13 +1493,13 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1518,13 +1528,13 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1553,13 +1563,13 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1588,13 +1598,13 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1623,13 +1633,13 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1658,13 +1668,13 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1693,13 +1703,13 @@
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1728,13 +1738,13 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -1763,13 +1773,13 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1798,13 +1808,13 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1833,13 +1843,13 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1868,13 +1878,13 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
